--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_185.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_185.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Studio 6 New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -58,78 +136,6 @@
   </si>
   <si>
     <t>140</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -500,34 +506,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>40003</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70128</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -552,76 +577,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E2" t="n">
+        <v>70128</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_185.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_185.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,993 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r621090661-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>223131</t>
+  </si>
+  <si>
+    <t>621090661</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>Motel 6 Like Plus a Kitchen</t>
+  </si>
+  <si>
+    <t>This is essentially a Pet Friendly Motel 6 with a Kitchen located next to a Motel 6 at 123301 I-10 Service Road, New Orleans, LA 70128.  There is acWalmart and McDonalds at the I-10 exit for this property.  The property is in good condition, kitchen has a fridge, sink, microwave, and range, adequate for longer stay, exterior property is illuminated for extra security, nighttime security officer, desk 24-hours, and the parking is fenced except for the entry/exit. The property is located via I-10 for quick and easy downtown and Super-done access.  Enjoy.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r597341534-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>597341534</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>tale of two hotels</t>
+  </si>
+  <si>
+    <t>first room we had was not very good, the a/c did not cool the room sufficiently, then we found several roaches in the room. we complained to the front desk and the girl there apologized and moved us to another room on a different floor. that room was great a/c cooled perfectly and the room was very clean and not a single bug the rest of our stay. it was like staying at two different motels. price was good and location right off i i-10 was good but the top floor room left a lot to be desired.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r596836523-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596836523</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>16th Anniversary</t>
+  </si>
+  <si>
+    <t>Started off ok, ended terribly. Check in process was kind of smoot, the lady at the front desk was very nice and helpful. The rooms looked nice when we got into them, but they turned out totally different.The bedding was clean and the bed was somewhat comfortable. The hot water wasn't fully up to par. We saw bugs, like roaches in the room, it was nasty, but we got some spray at Walmart. The housekeepers didn't want to clean the rooms, they only cleaned the restrooms. Alot of very unusual traffic going on at the hotel. Overall it was a great value for the nights we stayed, but we won't stay again. Very special thanks to the front desk employees, they really make the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Started off ok, ended terribly. Check in process was kind of smoot, the lady at the front desk was very nice and helpful. The rooms looked nice when we got into them, but they turned out totally different.The bedding was clean and the bed was somewhat comfortable. The hot water wasn't fully up to par. We saw bugs, like roaches in the room, it was nasty, but we got some spray at Walmart. The housekeepers didn't want to clean the rooms, they only cleaned the restrooms. Alot of very unusual traffic going on at the hotel. Overall it was a great value for the nights we stayed, but we won't stay again. Very special thanks to the front desk employees, they really make the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r548306943-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>548306943</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect for the working man!</t>
+  </si>
+  <si>
+    <t>When I'm working in and around New Orleans I stay at the Studio 6.  Even if I don't have a reservation, the staff goes put of their way to assist me.  The rooms are always clean and comfortable.  The two managers are always present and greet you Everytime they see you and ask if everything is alright.  I feel at home there Everytime.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r509000646-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>509000646</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Filthy inside and out, but IS pet friendly</t>
+  </si>
+  <si>
+    <t>First they didn't have our reservation. That should have warned us. The TV was on when we got to our room but there was no remote. There was no staff or local contact number even as late as 8:30am.  We were not prepared for the molded coffee grounds in the coffee pot, the pantyhose stuck in the toilet that remained regardless of the number of times the toilet was flushed. It would disappear and reappear like a snake tongue. There was trash and filth under the beds ( found when I dropped something). When I walked out to the car I observed someone leaning out of his room window shooting at something on the adjacent property with a sling shot. There were grocery carts, trash, old construction refuse and a plethora of cigarette butts that were so deep as to have been there weeks. The smell of weed never abated and I swear I had a contact high all night and a severe case of the munchies. On the good side, it was pet friendly although I had felt the need to clean the floor before I put my Sheltie down! I also felt the need to be armed on each trip outside. Oh, the a/c rattled like crazy too!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 New Orleans, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>First they didn't have our reservation. That should have warned us. The TV was on when we got to our room but there was no remote. There was no staff or local contact number even as late as 8:30am.  We were not prepared for the molded coffee grounds in the coffee pot, the pantyhose stuck in the toilet that remained regardless of the number of times the toilet was flushed. It would disappear and reappear like a snake tongue. There was trash and filth under the beds ( found when I dropped something). When I walked out to the car I observed someone leaning out of his room window shooting at something on the adjacent property with a sling shot. There were grocery carts, trash, old construction refuse and a plethora of cigarette butts that were so deep as to have been there weeks. The smell of weed never abated and I swear I had a contact high all night and a severe case of the munchies. On the good side, it was pet friendly although I had felt the need to clean the floor before I put my Sheltie down! I also felt the need to be armed on each trip outside. Oh, the a/c rattled like crazy too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r489984677-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>489984677</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Agnpet</t>
+  </si>
+  <si>
+    <t>this is a great place to stay if you are looking for a nice clean place and great value for the money them this is the place to stay convenience with a Wal-Mart across the street and lots of eating places nearby walking distance.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r469893544-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>469893544</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Our Annual Vacation to New Orleans</t>
+  </si>
+  <si>
+    <t>This motel was wonderful and it was perfect for us as we are travelling with our small dog Nola.  Having a kitchen and clean room was important to us.  Across the street from a Walmart and 13 minutes to the French Quarters.  Super friendly staff especially Christina Essie manager of the front desk.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r434088622-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>434088622</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here during Halloween weekend. For the Pros: The staff is friendly and helpful. I was impressed with all the kitchen supplies we had compared to most extended stays. There is also a Walmart across the street and several restaurants nearby. 
+And now the Cons: I was charged 96.75 before I even checked in even though I made a reservation in advance with a major credit card. I was fine with that until when I went to check in she tried to charge me the full amount even though I had already paid the first night. 
+The first room we checked into had a brown stains on the sheets one of which was blood. The bed was obviously just made with out the sheets being changed. The "clean" room we were moved too had a giant spider web on the lamp and black hair in the tub and on towels. The housekeeping here is lazy. When we were changing rooms another family asked us on the elevator if we were moving too and they told us the had hornets in their room. The last night we were there another couple were standing in the hallway telling a staff member somebody's stuff was in the room they just checked in to. 
+Overall if your driving though Louisiana and need a place for the night it's not bad. If your vacationing in New Orleans it's not worth it....My husband and I stayed here during Halloween weekend. For the Pros: The staff is friendly and helpful. I was impressed with all the kitchen supplies we had compared to most extended stays. There is also a Walmart across the street and several restaurants nearby. And now the Cons: I was charged 96.75 before I even checked in even though I made a reservation in advance with a major credit card. I was fine with that until when I went to check in she tried to charge me the full amount even though I had already paid the first night. The first room we checked into had a brown stains on the sheets one of which was blood. The bed was obviously just made with out the sheets being changed. The "clean" room we were moved too had a giant spider web on the lamp and black hair in the tub and on towels. The housekeeping here is lazy. When we were changing rooms another family asked us on the elevator if we were moving too and they told us the had hornets in their room. The last night we were there another couple were standing in the hallway telling a staff member somebody's stuff was in the room they just checked in to. Overall if your driving though Louisiana and need a place for the night it's not bad. If your vacationing in New Orleans it's not worth it. It's too far from everything downtown. Average uber ride to the French quarter is 15.00 and that's not when it's surging. I wouldn't stay here again. Between the parking costs and the uber rides when we didn't want to drive we paid more that what I would have just staying in the French quarter.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here during Halloween weekend. For the Pros: The staff is friendly and helpful. I was impressed with all the kitchen supplies we had compared to most extended stays. There is also a Walmart across the street and several restaurants nearby. 
+And now the Cons: I was charged 96.75 before I even checked in even though I made a reservation in advance with a major credit card. I was fine with that until when I went to check in she tried to charge me the full amount even though I had already paid the first night. 
+The first room we checked into had a brown stains on the sheets one of which was blood. The bed was obviously just made with out the sheets being changed. The "clean" room we were moved too had a giant spider web on the lamp and black hair in the tub and on towels. The housekeeping here is lazy. When we were changing rooms another family asked us on the elevator if we were moving too and they told us the had hornets in their room. The last night we were there another couple were standing in the hallway telling a staff member somebody's stuff was in the room they just checked in to. 
+Overall if your driving though Louisiana and need a place for the night it's not bad. If your vacationing in New Orleans it's not worth it....My husband and I stayed here during Halloween weekend. For the Pros: The staff is friendly and helpful. I was impressed with all the kitchen supplies we had compared to most extended stays. There is also a Walmart across the street and several restaurants nearby. And now the Cons: I was charged 96.75 before I even checked in even though I made a reservation in advance with a major credit card. I was fine with that until when I went to check in she tried to charge me the full amount even though I had already paid the first night. The first room we checked into had a brown stains on the sheets one of which was blood. The bed was obviously just made with out the sheets being changed. The "clean" room we were moved too had a giant spider web on the lamp and black hair in the tub and on towels. The housekeeping here is lazy. When we were changing rooms another family asked us on the elevator if we were moving too and they told us the had hornets in their room. The last night we were there another couple were standing in the hallway telling a staff member somebody's stuff was in the room they just checked in to. Overall if your driving though Louisiana and need a place for the night it's not bad. If your vacationing in New Orleans it's not worth it. It's too far from everything downtown. Average uber ride to the French quarter is 15.00 and that's not when it's surging. I wouldn't stay here again. Between the parking costs and the uber rides when we didn't want to drive we paid more that what I would have just staying in the French quarter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r432800068-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432800068</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Pre-concert Meal</t>
+  </si>
+  <si>
+    <t>We visited Studio 6, on the advice of someone else, while on our way to a concert. The raw oysters were very, very good. The 6 Seafood salad's name was misleading, but reading is fundamental. Once I read the menu again, after receiving the salad, I underatood. We do plan to visit again and recommend it to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r432774235-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432774235</t>
+  </si>
+  <si>
+    <t>Good for extended house hunting</t>
+  </si>
+  <si>
+    <t>We have been here before and returned when our rent was increased too much for the property.  Friendly staff, clean room and working coffeemaker make it good, easy access to any place in New Orleans or Metairie make it great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r427460411-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>427460411</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Room 436 smells like a smoky toilet, horrible check in experience</t>
+  </si>
+  <si>
+    <t>When trying to check in late, which was previously arranged, there was a phone to call, but no one would answer.  After about 15 minutes, I located the check in person at the regular motel 6 who called the night guard who helped me out.  Please note, instructions specifically said to use night phone.  I called it 10 times and went to voicemail over 15 minutes.  Next, the room I was given smelled like a smoky toilet... really... although the door said non smoking.  I complained on the way out in the morning...and said I would not be back if all the rooms smelled like that...  and the front desk person just looked at me.  I told them I will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>When trying to check in late, which was previously arranged, there was a phone to call, but no one would answer.  After about 15 minutes, I located the check in person at the regular motel 6 who called the night guard who helped me out.  Please note, instructions specifically said to use night phone.  I called it 10 times and went to voicemail over 15 minutes.  Next, the room I was given smelled like a smoky toilet... really... although the door said non smoking.  I complained on the way out in the morning...and said I would not be back if all the rooms smelled like that...  and the front desk person just looked at me.  I told them I will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r424246357-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424246357</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>SLEEP AND GO!</t>
+  </si>
+  <si>
+    <t>PROS: The price is reasonable for the accommodation,location quick accessible to I-10,cameras in the hallways, on ground security sometime. The place is trying .CONS: THAT MILDEW SMELL! THE TOWELS ARE VERY OLD, good thing I brought some from home. The front desk clerks could stand for more training, THAT BUSINESS COMES BEFORE PLEASURE, (Anthony) if you want a PAY CHECK! I have seen about 4 managers come and go. I notice 1 dog running  around without a leash inside the building, he was TRYING HIS BEST TO GET OUT OF STUDIO 6. His owner said he appeared SCARED THEIR, I SAID WHAT!!!!!!!!!!!!!!! This place was supposedly remodeled, must have been very cheaply done. While we were their a guy came out the door with a BIG CANDLE in his hand, the candle had 5 WICKS on it, all-lit up, the security guard ask him sir whats the problem, He said I m going to light my cigarette. BOY BOY! I had several guest complain about the 2 &amp; 3 floor, roaches &amp; AC problems. I had to changed rooms myself, 1st one was for the handicap, boy did it smell BAD!!!!!!!!!!!!!!!! This is for the 1 that assigned the room I am not HANDICAP, save it for some one that is. I sense that this place is not STRAIGHT &amp; OUTLINE.MoreShow less</t>
+  </si>
+  <si>
+    <t>PROS: The price is reasonable for the accommodation,location quick accessible to I-10,cameras in the hallways, on ground security sometime. The place is trying .CONS: THAT MILDEW SMELL! THE TOWELS ARE VERY OLD, good thing I brought some from home. The front desk clerks could stand for more training, THAT BUSINESS COMES BEFORE PLEASURE, (Anthony) if you want a PAY CHECK! I have seen about 4 managers come and go. I notice 1 dog running  around without a leash inside the building, he was TRYING HIS BEST TO GET OUT OF STUDIO 6. His owner said he appeared SCARED THEIR, I SAID WHAT!!!!!!!!!!!!!!! This place was supposedly remodeled, must have been very cheaply done. While we were their a guy came out the door with a BIG CANDLE in his hand, the candle had 5 WICKS on it, all-lit up, the security guard ask him sir whats the problem, He said I m going to light my cigarette. BOY BOY! I had several guest complain about the 2 &amp; 3 floor, roaches &amp; AC problems. I had to changed rooms myself, 1st one was for the handicap, boy did it smell BAD!!!!!!!!!!!!!!!! This is for the 1 that assigned the room I am not HANDICAP, save it for some one that is. I sense that this place is not STRAIGHT &amp; OUTLINE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r419974556-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>419974556</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Basic accommodation but clean, comfortable and great service!</t>
+  </si>
+  <si>
+    <t>At the last minute, we discovered our original hotel had mixed up our reservation and there we were--two old folks in New Orleans on Saturday night without a hotel!  We contacted Studio Six where we have stayed before and Anthony at the desk knocked himself out to give us a very nice room on the ground floor.  He even called later to be sure everything was good for us.  A very professional and thoughtful young man. Yes, Studio Six rooms are basic budget acommodation, but they are clean,comfortable and spacious.  There is a full kitchen and table and chairs, so the room is much more roomy than a small hotel room.  Our room had two double beds but there was still plenty of room. Beds were comfy and TV was new. Studio Six is located behind the Motel Six so it is somewhat secluded and there is no through traffic except other guests so it seems safe to us.  Parking is free---unlike hotels in town that can charge up to $50 a night for parking!   If you do not need luxury and you are willing to drive 15-20 minutes out of town, this is a great alternative for guests with cars.  The drive into town is easy but parking is very expensive.  Be sure to check online for parking possibilities since some prices are better than others and some parking lots have "Early bird" deals.  We are happy to recommend...At the last minute, we discovered our original hotel had mixed up our reservation and there we were--two old folks in New Orleans on Saturday night without a hotel!  We contacted Studio Six where we have stayed before and Anthony at the desk knocked himself out to give us a very nice room on the ground floor.  He even called later to be sure everything was good for us.  A very professional and thoughtful young man. Yes, Studio Six rooms are basic budget acommodation, but they are clean,comfortable and spacious.  There is a full kitchen and table and chairs, so the room is much more roomy than a small hotel room.  Our room had two double beds but there was still plenty of room. Beds were comfy and TV was new. Studio Six is located behind the Motel Six so it is somewhat secluded and there is no through traffic except other guests so it seems safe to us.  Parking is free---unlike hotels in town that can charge up to $50 a night for parking!   If you do not need luxury and you are willing to drive 15-20 minutes out of town, this is a great alternative for guests with cars.  The drive into town is easy but parking is very expensive.  Be sure to check online for parking possibilities since some prices are better than others and some parking lots have "Early bird" deals.  We are happy to recommend Studio Six and the price is definitely right!!  There is a charge for wi-if.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>At the last minute, we discovered our original hotel had mixed up our reservation and there we were--two old folks in New Orleans on Saturday night without a hotel!  We contacted Studio Six where we have stayed before and Anthony at the desk knocked himself out to give us a very nice room on the ground floor.  He even called later to be sure everything was good for us.  A very professional and thoughtful young man. Yes, Studio Six rooms are basic budget acommodation, but they are clean,comfortable and spacious.  There is a full kitchen and table and chairs, so the room is much more roomy than a small hotel room.  Our room had two double beds but there was still plenty of room. Beds were comfy and TV was new. Studio Six is located behind the Motel Six so it is somewhat secluded and there is no through traffic except other guests so it seems safe to us.  Parking is free---unlike hotels in town that can charge up to $50 a night for parking!   If you do not need luxury and you are willing to drive 15-20 minutes out of town, this is a great alternative for guests with cars.  The drive into town is easy but parking is very expensive.  Be sure to check online for parking possibilities since some prices are better than others and some parking lots have "Early bird" deals.  We are happy to recommend...At the last minute, we discovered our original hotel had mixed up our reservation and there we were--two old folks in New Orleans on Saturday night without a hotel!  We contacted Studio Six where we have stayed before and Anthony at the desk knocked himself out to give us a very nice room on the ground floor.  He even called later to be sure everything was good for us.  A very professional and thoughtful young man. Yes, Studio Six rooms are basic budget acommodation, but they are clean,comfortable and spacious.  There is a full kitchen and table and chairs, so the room is much more roomy than a small hotel room.  Our room had two double beds but there was still plenty of room. Beds were comfy and TV was new. Studio Six is located behind the Motel Six so it is somewhat secluded and there is no through traffic except other guests so it seems safe to us.  Parking is free---unlike hotels in town that can charge up to $50 a night for parking!   If you do not need luxury and you are willing to drive 15-20 minutes out of town, this is a great alternative for guests with cars.  The drive into town is easy but parking is very expensive.  Be sure to check online for parking possibilities since some prices are better than others and some parking lots have "Early bird" deals.  We are happy to recommend Studio Six and the price is definitely right!!  There is a charge for wi-if.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r395868694-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>395868694</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Ashleigh is amazing</t>
+  </si>
+  <si>
+    <t>We checked in late Friday night due to our air going out and the lobby was packed.. It was one agent and about 5 guest.. She handle herself with such grace and even though we waited a long time i knew she was doing all she could.. She managed to keep a smile on her face and even offered us a extra night due to everything that was going on around us... The next day the desk clerk and the mod was also very friendly.. I would only recommend to have tooth brush and tooth paste for guest even if just to purchase and we had a guest mistakenly come into our room.. Usually I would have a problem with it but because the staff seemed very understaff but still trying to accommodate the guest however they can it kept me very calm.. The housekeepers were low on towels but seemed willing to get us some as soon as they could... THATS THE WAY U KEEP UR GUEST HAPPY... Things will happen but they let the customer service over power the issues they were coming across... GOOD JOB!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We checked in late Friday night due to our air going out and the lobby was packed.. It was one agent and about 5 guest.. She handle herself with such grace and even though we waited a long time i knew she was doing all she could.. She managed to keep a smile on her face and even offered us a extra night due to everything that was going on around us... The next day the desk clerk and the mod was also very friendly.. I would only recommend to have tooth brush and tooth paste for guest even if just to purchase and we had a guest mistakenly come into our room.. Usually I would have a problem with it but because the staff seemed very understaff but still trying to accommodate the guest however they can it kept me very calm.. The housekeepers were low on towels but seemed willing to get us some as soon as they could... THATS THE WAY U KEEP UR GUEST HAPPY... Things will happen but they let the customer service over power the issues they were coming across... GOOD JOB!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r322340608-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>322340608</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Sort of okay</t>
+  </si>
+  <si>
+    <t>The room is cozy (small) but well cleaned.  I'm here for about a month while closing on my house.  There are three different rates: daily, weekly, and monthly.  I have the weekly rate, because I leave occasionally on the weekends.
+I've been here for eight nights now, on the second floor, and have so far seen 6 cockroaches.  One was in the toilet (dead), one in the shower (eeek!!!), one on the bathroom floor, a HUGE one on my bedroom ceiling, and one on the ceiling in my kitchenette.  I tried to get it with a shoe, but it knew the way out and skittered under my front door and into the hall.
+As other posters have said, the room smells like mildew.  I even brought a plugin air freshener, and now it smells like mildew and apple cinnamon.  
+There's wifi for $5/week.  On the second floor, the connection is only 2 bars and disconnects if I have my phone in the bathroom (I stream music while I shower).  When it is connected, it's slower than my 3G connection.
+There is an IHOP in walking distance that smells so strongly of mildew I thought the floor was soaked in urine.  I could hardly eat there.
+There's a Wal Mart Supercenter less than a mile away.  Technically walking distance if you don't have access to a vehicle.
+The kitchenette is nice and newly remodeled.  The bathroom is nice and clean.  
+They...The room is cozy (small) but well cleaned.  I'm here for about a month while closing on my house.  There are three different rates: daily, weekly, and monthly.  I have the weekly rate, because I leave occasionally on the weekends.I've been here for eight nights now, on the second floor, and have so far seen 6 cockroaches.  One was in the toilet (dead), one in the shower (eeek!!!), one on the bathroom floor, a HUGE one on my bedroom ceiling, and one on the ceiling in my kitchenette.  I tried to get it with a shoe, but it knew the way out and skittered under my front door and into the hall.As other posters have said, the room smells like mildew.  I even brought a plugin air freshener, and now it smells like mildew and apple cinnamon.  There's wifi for $5/week.  On the second floor, the connection is only 2 bars and disconnects if I have my phone in the bathroom (I stream music while I shower).  When it is connected, it's slower than my 3G connection.There is an IHOP in walking distance that smells so strongly of mildew I thought the floor was soaked in urine.  I could hardly eat there.There's a Wal Mart Supercenter less than a mile away.  Technically walking distance if you don't have access to a vehicle.The kitchenette is nice and newly remodeled.  The bathroom is nice and clean.  They allow pets here.  I've heard dogs barking in other rooms every day, but the owners seem to calm them down pretty quickly.  There seems to be little to no sound proofing in the walls.  The person above me does some sort of dancing (not sure if horizontal or vertical) every night as I'm trying to fall asleep, which is a little disturbing, and I can hear every time any door opens (including my neighbor's fridge door).I sleep with my large Ka Bar knife under my pillow.  On a scale of 1 being least and 10 being most safe, I'm right at about a 6 here.  They have a swinging latch instead of a bolt lock, which I really don't like.  As time goes on, I've gotten to where I can sleep the whole night through. Bed is hard and lumpy.  Pillows are flat.Pro:  the coffee machine is programmable and can be used as an alarm clock (if you're a light enough sleeper).  Con:  you'll need to buy your own dish soap and scrub the heck out of it.  Yuck. One last thing: if you pay the weekly or monthly rate, you only get one cleaning per week, and it can't be on the weekend.  I tried to get a cleaning on Sunday and they denied it, even though the housekeeper was literally right next door.  I wanted mine cleaned while I was in the room, not at work.   Something to keep in mind.My room is supposed to be non smoking but reeks of smoke.  Additionally, people smoke elsewhere in the hotel (whether they're supposed to or not) and it seeps through walls/cracks.  Every evening the smoke smell gets stronger and stronger as time progresses; making my eyes and throat hurt.  Over all, I'd stay here again,  but only after thoroughly researching other options in the area.Update:  I just called the front desk for pest control about the roaches, and they said they may or may not get to it today--they contract out and have to ask if the pest control company has an openin today.  He also said they're "not that worried" about the big roaches, because they're "just outside roaches."  Never in my life have I heard a hotel say such a thing.  I will definitely be finding somewhere else to stay starting next week.  I am thoroughly disgusted.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Studio 6 New Orleans, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>The room is cozy (small) but well cleaned.  I'm here for about a month while closing on my house.  There are three different rates: daily, weekly, and monthly.  I have the weekly rate, because I leave occasionally on the weekends.
+I've been here for eight nights now, on the second floor, and have so far seen 6 cockroaches.  One was in the toilet (dead), one in the shower (eeek!!!), one on the bathroom floor, a HUGE one on my bedroom ceiling, and one on the ceiling in my kitchenette.  I tried to get it with a shoe, but it knew the way out and skittered under my front door and into the hall.
+As other posters have said, the room smells like mildew.  I even brought a plugin air freshener, and now it smells like mildew and apple cinnamon.  
+There's wifi for $5/week.  On the second floor, the connection is only 2 bars and disconnects if I have my phone in the bathroom (I stream music while I shower).  When it is connected, it's slower than my 3G connection.
+There is an IHOP in walking distance that smells so strongly of mildew I thought the floor was soaked in urine.  I could hardly eat there.
+There's a Wal Mart Supercenter less than a mile away.  Technically walking distance if you don't have access to a vehicle.
+The kitchenette is nice and newly remodeled.  The bathroom is nice and clean.  
+They...The room is cozy (small) but well cleaned.  I'm here for about a month while closing on my house.  There are three different rates: daily, weekly, and monthly.  I have the weekly rate, because I leave occasionally on the weekends.I've been here for eight nights now, on the second floor, and have so far seen 6 cockroaches.  One was in the toilet (dead), one in the shower (eeek!!!), one on the bathroom floor, a HUGE one on my bedroom ceiling, and one on the ceiling in my kitchenette.  I tried to get it with a shoe, but it knew the way out and skittered under my front door and into the hall.As other posters have said, the room smells like mildew.  I even brought a plugin air freshener, and now it smells like mildew and apple cinnamon.  There's wifi for $5/week.  On the second floor, the connection is only 2 bars and disconnects if I have my phone in the bathroom (I stream music while I shower).  When it is connected, it's slower than my 3G connection.There is an IHOP in walking distance that smells so strongly of mildew I thought the floor was soaked in urine.  I could hardly eat there.There's a Wal Mart Supercenter less than a mile away.  Technically walking distance if you don't have access to a vehicle.The kitchenette is nice and newly remodeled.  The bathroom is nice and clean.  They allow pets here.  I've heard dogs barking in other rooms every day, but the owners seem to calm them down pretty quickly.  There seems to be little to no sound proofing in the walls.  The person above me does some sort of dancing (not sure if horizontal or vertical) every night as I'm trying to fall asleep, which is a little disturbing, and I can hear every time any door opens (including my neighbor's fridge door).I sleep with my large Ka Bar knife under my pillow.  On a scale of 1 being least and 10 being most safe, I'm right at about a 6 here.  They have a swinging latch instead of a bolt lock, which I really don't like.  As time goes on, I've gotten to where I can sleep the whole night through. Bed is hard and lumpy.  Pillows are flat.Pro:  the coffee machine is programmable and can be used as an alarm clock (if you're a light enough sleeper).  Con:  you'll need to buy your own dish soap and scrub the heck out of it.  Yuck. One last thing: if you pay the weekly or monthly rate, you only get one cleaning per week, and it can't be on the weekend.  I tried to get a cleaning on Sunday and they denied it, even though the housekeeper was literally right next door.  I wanted mine cleaned while I was in the room, not at work.   Something to keep in mind.My room is supposed to be non smoking but reeks of smoke.  Additionally, people smoke elsewhere in the hotel (whether they're supposed to or not) and it seeps through walls/cracks.  Every evening the smoke smell gets stronger and stronger as time progresses; making my eyes and throat hurt.  Over all, I'd stay here again,  but only after thoroughly researching other options in the area.Update:  I just called the front desk for pest control about the roaches, and they said they may or may not get to it today--they contract out and have to ask if the pest control company has an openin today.  He also said they're "not that worried" about the big roaches, because they're "just outside roaches."  Never in my life have I heard a hotel say such a thing.  I will definitely be finding somewhere else to stay starting next week.  I am thoroughly disgusted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r316372013-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>316372013</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Here for Business</t>
+  </si>
+  <si>
+    <t>I am a single man and the room was more than i needed. The staff was very nice and the laundry on site was handy. New televisions and security onsite. So far no issues. I have a small dog and that was not an issue. Overall I have been here 5 days so far and have had no issues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r291800281-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>291800281</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Like an apartment away from home</t>
+  </si>
+  <si>
+    <t>Nicely kept studio hotel rooms. Recently renovated rooms are clean and modern, rooms painted in interesting accent colors. Fair rates, both nightly and weekly. Clean and sturdy furniture inside. Up to date stove, microwave, and refrigerator to use. Also a flat screen TV. Great location off I-10. Security guard 24/7. If you just want a place to spend the night and don't want to spend a lot of money, I'd definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r286205445-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286205445</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice &amp; Economical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was a little skeptical to stay here after I read the reviews. It turned out to be just what I needed for the night. Clean and comfortable. The staff was nice, convenient location,  and room was clean. My only complaint is the laminate flooring was cold and a little slippery. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r229643351-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>229643351</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Worst experience EVER!</t>
+  </si>
+  <si>
+    <t>Rooms are dirty, hotel is infested with roaches, drug dealings in hallways, parties with alcohol all over outside, don't bother complaining because the staff is rude and managers are worse! There is no set rate, they charge you what they want on a day to day basis. And in the middle of your stay they can "change their policy" and decide you have to leave! No warning,  no apologies,  and certainly no refund!  Not even on the "mandatory deposit" of an extra $150</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r227602138-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>227602138</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>We were told on the phone when booking thier pet policy didn't limit the number of pets in the room and the $50 nonrefundable deposit covered my 3 small dogs.  It was fine until I complained about the room directly above me with 20 small kids running wild all night and asked to be moved to a 'newly renovated' room they were advertising. They are obviously for employees or relatives of employees only because we not only were not moved, our rates were raised and we were told we had to "get rid" of 1 of our dogs! The rooms are FILTHY and roaches are everywhere so how would  1 extra dog make a difference???MoreShow less</t>
+  </si>
+  <si>
+    <t>We were told on the phone when booking thier pet policy didn't limit the number of pets in the room and the $50 nonrefundable deposit covered my 3 small dogs.  It was fine until I complained about the room directly above me with 20 small kids running wild all night and asked to be moved to a 'newly renovated' room they were advertising. They are obviously for employees or relatives of employees only because we not only were not moved, our rates were raised and we were told we had to "get rid" of 1 of our dogs! The rooms are FILTHY and roaches are everywhere so how would  1 extra dog make a difference???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r206186311-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206186311</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>GROSS!!!</t>
+  </si>
+  <si>
+    <t>TERRIBLE EXPERIENCE!!! I know it's a cheap hotel..i get it...but the least you can do is CLEAN a little. First of all we had to sit outside for two hours because the electricity was out and we didn't get to check in until almost 10:00pm when we had plans that evening. I get that it isn't the hotels fault that the electricity went out, but I feel for customer satisfaction...something should have been done. We booked three rooms and when we finally checked in, the rooms were TERRIBLE! The whole fourth floor reaked of cigarrette smoke! None of us would walk barefoot in the room or take showers because it was so disgusting. There was a dead roach next to one of our beds, the bathroom smelled of backed up sewage, and the beds squeaked and were extremely uncomfortable. I got locked out of my room for an hour because no one was working at the front desk and no one would answer either of the "managers" phone numbers posted in the lobby. When we went to check out and talked to the front desk about all of the problems we had and we got looked at like we were stupid and told we needed to speak with a manager about the issues which is what we were told the night before as well. We basically got brushed off and nothing was done not even a discount offered for any...TERRIBLE EXPERIENCE!!! I know it's a cheap hotel..i get it...but the least you can do is CLEAN a little. First of all we had to sit outside for two hours because the electricity was out and we didn't get to check in until almost 10:00pm when we had plans that evening. I get that it isn't the hotels fault that the electricity went out, but I feel for customer satisfaction...something should have been done. We booked three rooms and when we finally checked in, the rooms were TERRIBLE! The whole fourth floor reaked of cigarrette smoke! None of us would walk barefoot in the room or take showers because it was so disgusting. There was a dead roach next to one of our beds, the bathroom smelled of backed up sewage, and the beds squeaked and were extremely uncomfortable. I got locked out of my room for an hour because no one was working at the front desk and no one would answer either of the "managers" phone numbers posted in the lobby. When we went to check out and talked to the front desk about all of the problems we had and we got looked at like we were stupid and told we needed to speak with a manager about the issues which is what we were told the night before as well. We basically got brushed off and nothing was done not even a discount offered for any of the problems we had. Didn't expect a discount honestly but an apology would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>TERRIBLE EXPERIENCE!!! I know it's a cheap hotel..i get it...but the least you can do is CLEAN a little. First of all we had to sit outside for two hours because the electricity was out and we didn't get to check in until almost 10:00pm when we had plans that evening. I get that it isn't the hotels fault that the electricity went out, but I feel for customer satisfaction...something should have been done. We booked three rooms and when we finally checked in, the rooms were TERRIBLE! The whole fourth floor reaked of cigarrette smoke! None of us would walk barefoot in the room or take showers because it was so disgusting. There was a dead roach next to one of our beds, the bathroom smelled of backed up sewage, and the beds squeaked and were extremely uncomfortable. I got locked out of my room for an hour because no one was working at the front desk and no one would answer either of the "managers" phone numbers posted in the lobby. When we went to check out and talked to the front desk about all of the problems we had and we got looked at like we were stupid and told we needed to speak with a manager about the issues which is what we were told the night before as well. We basically got brushed off and nothing was done not even a discount offered for any...TERRIBLE EXPERIENCE!!! I know it's a cheap hotel..i get it...but the least you can do is CLEAN a little. First of all we had to sit outside for two hours because the electricity was out and we didn't get to check in until almost 10:00pm when we had plans that evening. I get that it isn't the hotels fault that the electricity went out, but I feel for customer satisfaction...something should have been done. We booked three rooms and when we finally checked in, the rooms were TERRIBLE! The whole fourth floor reaked of cigarrette smoke! None of us would walk barefoot in the room or take showers because it was so disgusting. There was a dead roach next to one of our beds, the bathroom smelled of backed up sewage, and the beds squeaked and were extremely uncomfortable. I got locked out of my room for an hour because no one was working at the front desk and no one would answer either of the "managers" phone numbers posted in the lobby. When we went to check out and talked to the front desk about all of the problems we had and we got looked at like we were stupid and told we needed to speak with a manager about the issues which is what we were told the night before as well. We basically got brushed off and nothing was done not even a discount offered for any of the problems we had. Didn't expect a discount honestly but an apology would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r201453226-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201453226</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Cons: Lazy Staff, Filthy Rooms - Pros: Hah! You wish!</t>
+  </si>
+  <si>
+    <t>I rented two rooms. Room 1: the carpet was soaked and smelled terribly. Thankfully, I personally stayed in Room 2, because I wouldn't have been able to tolerate the smell. The silverware in the kitchenette was filthy and there was mold in the ice trays. Yes, mold. The linoleum floor was discolored, but we can look past that. Room 2: the silverware looked fine although we didn't use it after seeing the silverware in Room 1 was dirty..obviously the silverware does not get washed here, or maybe it's just ran under water. Room 2 did not have the strong odor and the carpet was dry, so that's a plus. There were cigarette burn holes in the sheets and blanket on both beds. Not just one burn hole, but multiple in both. As bad as the rooms were, the service was even worse. The first night, we tried to get a different room for the people in Room 1, but they said they were booked. I accepted this because if you don't have an available room, then it's simply not possible. However, the following day I went into the office and I watched them place another customer in a different hotel and from what I could hear, they even comped the room for him. This was infuriating since they did not lift a finger to help us the previous night. We mentioned the unsanitary and unsatisfactory condition of our room to...I rented two rooms. Room 1: the carpet was soaked and smelled terribly. Thankfully, I personally stayed in Room 2, because I wouldn't have been able to tolerate the smell. The silverware in the kitchenette was filthy and there was mold in the ice trays. Yes, mold. The linoleum floor was discolored, but we can look past that. Room 2: the silverware looked fine although we didn't use it after seeing the silverware in Room 1 was dirty..obviously the silverware does not get washed here, or maybe it's just ran under water. Room 2 did not have the strong odor and the carpet was dry, so that's a plus. There were cigarette burn holes in the sheets and blanket on both beds. Not just one burn hole, but multiple in both. As bad as the rooms were, the service was even worse. The first night, we tried to get a different room for the people in Room 1, but they said they were booked. I accepted this because if you don't have an available room, then it's simply not possible. However, the following day I went into the office and I watched them place another customer in a different hotel and from what I could hear, they even comped the room for him. This was infuriating since they did not lift a finger to help us the previous night. We mentioned the unsanitary and unsatisfactory condition of our room to the front desk two different times and all we got was "I'll put a note in the system for our manager". We heard nothing from the manager or staff during the entire trip. Oh, I almost forgot the room service maids. They came in and brought new towels and they tied back the shower curtain. That's it. There were long hairs in the shower, clearly from a previous guest. We noticed them the first night and felt certain housekeeping would clean it in the morning. No such luck. The hairs were at eye level! You cannot miss them! I'm fairly certain they were not our hairs because WE'RE BALD! The only thing more disgusting than the rooms at this hotel is the work ethic of its employees. I've never written a bad public review on a hotel, restaurant, etc... before today, but this had to be done. I'm a pretty easy-going guy and can tolerate a good bit, but not this. Pay the extra few bucks and stay somewhere else. If any of the staff happen to be reading this: Please take better pride in your work. In many of our situations, we are working to provide a roof over our family's head and food on their table. Holding a job and performing it to the best of our ability is the best way we can ensure a better future for ourselves and our families. Only putting forth a minimal effort at work not only negatively impacts your employer's bottom line, it sets a terrible precedent for future generations of your family. Smile, do your best, give your all and take pride in your work. To some of you this may just be a part time job, but to others it may be their means of survival. To those that don't take the job seriously, think about your coworkers and understand how your actions hurt them when guests stop coming to your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I rented two rooms. Room 1: the carpet was soaked and smelled terribly. Thankfully, I personally stayed in Room 2, because I wouldn't have been able to tolerate the smell. The silverware in the kitchenette was filthy and there was mold in the ice trays. Yes, mold. The linoleum floor was discolored, but we can look past that. Room 2: the silverware looked fine although we didn't use it after seeing the silverware in Room 1 was dirty..obviously the silverware does not get washed here, or maybe it's just ran under water. Room 2 did not have the strong odor and the carpet was dry, so that's a plus. There were cigarette burn holes in the sheets and blanket on both beds. Not just one burn hole, but multiple in both. As bad as the rooms were, the service was even worse. The first night, we tried to get a different room for the people in Room 1, but they said they were booked. I accepted this because if you don't have an available room, then it's simply not possible. However, the following day I went into the office and I watched them place another customer in a different hotel and from what I could hear, they even comped the room for him. This was infuriating since they did not lift a finger to help us the previous night. We mentioned the unsanitary and unsatisfactory condition of our room to...I rented two rooms. Room 1: the carpet was soaked and smelled terribly. Thankfully, I personally stayed in Room 2, because I wouldn't have been able to tolerate the smell. The silverware in the kitchenette was filthy and there was mold in the ice trays. Yes, mold. The linoleum floor was discolored, but we can look past that. Room 2: the silverware looked fine although we didn't use it after seeing the silverware in Room 1 was dirty..obviously the silverware does not get washed here, or maybe it's just ran under water. Room 2 did not have the strong odor and the carpet was dry, so that's a plus. There were cigarette burn holes in the sheets and blanket on both beds. Not just one burn hole, but multiple in both. As bad as the rooms were, the service was even worse. The first night, we tried to get a different room for the people in Room 1, but they said they were booked. I accepted this because if you don't have an available room, then it's simply not possible. However, the following day I went into the office and I watched them place another customer in a different hotel and from what I could hear, they even comped the room for him. This was infuriating since they did not lift a finger to help us the previous night. We mentioned the unsanitary and unsatisfactory condition of our room to the front desk two different times and all we got was "I'll put a note in the system for our manager". We heard nothing from the manager or staff during the entire trip. Oh, I almost forgot the room service maids. They came in and brought new towels and they tied back the shower curtain. That's it. There were long hairs in the shower, clearly from a previous guest. We noticed them the first night and felt certain housekeeping would clean it in the morning. No such luck. The hairs were at eye level! You cannot miss them! I'm fairly certain they were not our hairs because WE'RE BALD! The only thing more disgusting than the rooms at this hotel is the work ethic of its employees. I've never written a bad public review on a hotel, restaurant, etc... before today, but this had to be done. I'm a pretty easy-going guy and can tolerate a good bit, but not this. Pay the extra few bucks and stay somewhere else. If any of the staff happen to be reading this: Please take better pride in your work. In many of our situations, we are working to provide a roof over our family's head and food on their table. Holding a job and performing it to the best of our ability is the best way we can ensure a better future for ourselves and our families. Only putting forth a minimal effort at work not only negatively impacts your employer's bottom line, it sets a terrible precedent for future generations of your family. Smile, do your best, give your all and take pride in your work. To some of you this may just be a part time job, but to others it may be their means of survival. To those that don't take the job seriously, think about your coworkers and understand how your actions hurt them when guests stop coming to your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r201306746-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201306746</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>No complaints here</t>
+  </si>
+  <si>
+    <t>We booked through Travelocity.com about 3 weeks ahead of time. The location was just off the highway which was convenient. The room was standard and basic which was fine since we traveled 14 hours to experience city..not much of room except to sleep and shower. The room and bathroom was clean upon arrival. We asked for no housekeeping during our stay which they respected. The air worked great which was a plus. Got extra towels upon request. The front receptionist, Christina, was very polite and helpful with things such as cab info and alsolet us check in 3 hours early. The hotel smelled nice not musty or dingy. Little outdated but was nice. Kept hot coffee in stock in the mornings. I read some reviews before booking in this hotel and I didn't see any truth ton over half of the complaints. You get what you pay for. Its not a luxury hotel by any means but my experience was very good and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked through Travelocity.com about 3 weeks ahead of time. The location was just off the highway which was convenient. The room was standard and basic which was fine since we traveled 14 hours to experience city..not much of room except to sleep and shower. The room and bathroom was clean upon arrival. We asked for no housekeeping during our stay which they respected. The air worked great which was a plus. Got extra towels upon request. The front receptionist, Christina, was very polite and helpful with things such as cab info and alsolet us check in 3 hours early. The hotel smelled nice not musty or dingy. Little outdated but was nice. Kept hot coffee in stock in the mornings. I read some reviews before booking in this hotel and I didn't see any truth ton over half of the complaints. You get what you pay for. Its not a luxury hotel by any means but my experience was very good and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r201118249-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201118249</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Worst experience ever</t>
+  </si>
+  <si>
+    <t>To whom ever this is reading,  please take this post seriously as studio 6 is impossible to deal with.
+I made my reservation 2 months prior through orbitz for 2 nights with 2 beds in a non smoking room because one of my friend gets really light headed around smoke. I called them 2 days before, and I called them the day before to make sure my room was booked, and they said yes, it is. I arrived 3 hours early from a 16 an hour drive with 2 of my friends, and when I came in I saw people in distress in the very small room ( maybe it was a lobby, not sure) at the front. They said that my room will be ready at my check in time, and that there was no way possible to check in early. So my friends and I decided to go eat to kill time. As we come back, there is around 30 in people in that small room yelling at the receptionist, I felt bad for her.  Basically there were no rooms available for people who booked rooms at that hotel. I wasn’t concerned at first because they told me my room would be ready. When the line to wait was finally over, the receptionist referred me to the manager. She told me that Orbitz overbooked, didn’t communicate with them, and that they have no room for me at the...To whom ever this is reading,  please take this post seriously as studio 6 is impossible to deal with.I made my reservation 2 months prior through orbitz for 2 nights with 2 beds in a non smoking room because one of my friend gets really light headed around smoke. I called them 2 days before, and I called them the day before to make sure my room was booked, and they said yes, it is. I arrived 3 hours early from a 16 an hour drive with 2 of my friends, and when I came in I saw people in distress in the very small room ( maybe it was a lobby, not sure) at the front. They said that my room will be ready at my check in time, and that there was no way possible to check in early. So my friends and I decided to go eat to kill time. As we come back, there is around 30 in people in that small room yelling at the receptionist, I felt bad for her.  Basically there were no rooms available for people who booked rooms at that hotel. I wasn’t concerned at first because they told me my room would be ready. When the line to wait was finally over, the receptionist referred me to the manager. She told me that Orbitz overbooked, didn’t communicate with them, and that they have no room for me at the hotel.  I was exhausted from our drive and the lady tells me that?! I told her that I understand how stressed and frustrated she is, but that’s not my problem and that they told us our room would be ready. She acknowledged that the woman who said that was wrong,  and that would try to accommodate us in any other hotel. It was wrestlemania weekend in New Orleans, she called about about a good 15 hotels and they were all booked. She managed to get us a room at another hotel, paid by them, but it was one bed in a smoking room and it was very uncomfortable for my friends and I, but at that point we would take anything. The manager said for us to come back for following day and that they would either provide us a room by another hotel or that if there is a room at studio 6, we could stay there and we would have to pay. I get there by 12 and they said they have a room for us but they aren’t sure what time it would be ready…are you kidding me?!  It seemed like they enjoyed toying around with us and their customers. This time I made sure to pay to secure a room, and they reimbursed me later for that payment. They told us that we could leave our luggage in the small room by the manager, but with the track record they were having, I couldn’t trust them. I called them at 6 and they said our room wasn’t ready, to go enjoy the city and event and not to worry..yeah, that’s funny. We come back after the event with about  50 people outside extremely mad, we basically saw Part 2 occur the next day, all these people with no hotel. I get there and the new manager for that shift was being very rude to me and just gave me another letter. That letter basically accommodated us at another hotel, which was a very nice hotel to stay at by the way. I never actually stayed at studio 6, but my experience with them was pathetic. Cons- 2 months prior to booking, they had no rooms for us when we arrive, we were extremely stressed, they didn’t provided us with a hotel that had 2 beds or a non smoking room, they lied to us 2 days in a row that we would have a room when we arrived, they wanted us to keep our luggage there but with no card for a hotel room, again it was extremely stressing, and to top it off we never stayed at studio 6.Let me know corporate, how are you going to apologize?MoreShow less</t>
+  </si>
+  <si>
+    <t>To whom ever this is reading,  please take this post seriously as studio 6 is impossible to deal with.
+I made my reservation 2 months prior through orbitz for 2 nights with 2 beds in a non smoking room because one of my friend gets really light headed around smoke. I called them 2 days before, and I called them the day before to make sure my room was booked, and they said yes, it is. I arrived 3 hours early from a 16 an hour drive with 2 of my friends, and when I came in I saw people in distress in the very small room ( maybe it was a lobby, not sure) at the front. They said that my room will be ready at my check in time, and that there was no way possible to check in early. So my friends and I decided to go eat to kill time. As we come back, there is around 30 in people in that small room yelling at the receptionist, I felt bad for her.  Basically there were no rooms available for people who booked rooms at that hotel. I wasn’t concerned at first because they told me my room would be ready. When the line to wait was finally over, the receptionist referred me to the manager. She told me that Orbitz overbooked, didn’t communicate with them, and that they have no room for me at the...To whom ever this is reading,  please take this post seriously as studio 6 is impossible to deal with.I made my reservation 2 months prior through orbitz for 2 nights with 2 beds in a non smoking room because one of my friend gets really light headed around smoke. I called them 2 days before, and I called them the day before to make sure my room was booked, and they said yes, it is. I arrived 3 hours early from a 16 an hour drive with 2 of my friends, and when I came in I saw people in distress in the very small room ( maybe it was a lobby, not sure) at the front. They said that my room will be ready at my check in time, and that there was no way possible to check in early. So my friends and I decided to go eat to kill time. As we come back, there is around 30 in people in that small room yelling at the receptionist, I felt bad for her.  Basically there were no rooms available for people who booked rooms at that hotel. I wasn’t concerned at first because they told me my room would be ready. When the line to wait was finally over, the receptionist referred me to the manager. She told me that Orbitz overbooked, didn’t communicate with them, and that they have no room for me at the hotel.  I was exhausted from our drive and the lady tells me that?! I told her that I understand how stressed and frustrated she is, but that’s not my problem and that they told us our room would be ready. She acknowledged that the woman who said that was wrong,  and that would try to accommodate us in any other hotel. It was wrestlemania weekend in New Orleans, she called about about a good 15 hotels and they were all booked. She managed to get us a room at another hotel, paid by them, but it was one bed in a smoking room and it was very uncomfortable for my friends and I, but at that point we would take anything. The manager said for us to come back for following day and that they would either provide us a room by another hotel or that if there is a room at studio 6, we could stay there and we would have to pay. I get there by 12 and they said they have a room for us but they aren’t sure what time it would be ready…are you kidding me?!  It seemed like they enjoyed toying around with us and their customers. This time I made sure to pay to secure a room, and they reimbursed me later for that payment. They told us that we could leave our luggage in the small room by the manager, but with the track record they were having, I couldn’t trust them. I called them at 6 and they said our room wasn’t ready, to go enjoy the city and event and not to worry..yeah, that’s funny. We come back after the event with about  50 people outside extremely mad, we basically saw Part 2 occur the next day, all these people with no hotel. I get there and the new manager for that shift was being very rude to me and just gave me another letter. That letter basically accommodated us at another hotel, which was a very nice hotel to stay at by the way. I never actually stayed at studio 6, but my experience with them was pathetic. Cons- 2 months prior to booking, they had no rooms for us when we arrive, we were extremely stressed, they didn’t provided us with a hotel that had 2 beds or a non smoking room, they lied to us 2 days in a row that we would have a room when we arrived, they wanted us to keep our luggage there but with no card for a hotel room, again it was extremely stressing, and to top it off we never stayed at studio 6.Let me know corporate, how are you going to apologize?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r199574453-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199574453</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>"Lazy people"</t>
+  </si>
+  <si>
+    <t>We've been here for a month but until now they did'nt clean our rooms, they don't change the bed sheets, all they do is just replace the towels if you request but if not they don't... If you talk to the front desk and request to clean the room they only tell "yes sir, we will put it on schedule for tommorow." I will not recommend this place for extended stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r197443420-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197443420</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Had a great stay!</t>
+  </si>
+  <si>
+    <t>Just stayed there for 4 days (March 10th through March 13th) The hotel is a basic no frills hotel, but our room was clean, and house keeping cleaned it every day we were there. All of the staff that we encountered were extremely friendly and the lady who checked us in was very helpful when we asked about parking in the French Quarter and other places. The room had two full size beds and a kitchen with cook top, fridge, &amp; microwave and all worked fine. There were sufficient dishes and utensils for our family. The front office is only manned during the day but there is a number you can call if assistance is needed. We did not have any issues during our stay.  There were trash cans by the elevator on each floor (as mentioned in other reviews)  but they were not over flowing or left nasty. There was only one morning when we came down and they were full but it was cleaned up quickly. Our trip to the French Quarter took us approx. 10-15 minutes depending on the traffic. We will definitely be staying here again on our next trip to NOLA!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Just stayed there for 4 days (March 10th through March 13th) The hotel is a basic no frills hotel, but our room was clean, and house keeping cleaned it every day we were there. All of the staff that we encountered were extremely friendly and the lady who checked us in was very helpful when we asked about parking in the French Quarter and other places. The room had two full size beds and a kitchen with cook top, fridge, &amp; microwave and all worked fine. There were sufficient dishes and utensils for our family. The front office is only manned during the day but there is a number you can call if assistance is needed. We did not have any issues during our stay.  There were trash cans by the elevator on each floor (as mentioned in other reviews)  but they were not over flowing or left nasty. There was only one morning when we came down and they were full but it was cleaned up quickly. Our trip to the French Quarter took us approx. 10-15 minutes depending on the traffic. We will definitely be staying here again on our next trip to NOLA!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r196362566-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196362566</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Never again .</t>
+  </si>
+  <si>
+    <t>Came for Mardi-gras the room was not ready and we was told to come back in 30 min. The room was Ok nothing special. We stayed for 5 days after the 2nd day our room hadn't been cleaned. No clean sheets no clean towels trash still in room bed not made. On the way out I stopped and asked when our room was going to be cleaned the lady told me we clean the rooms every 3 days . So that means 1 time in 5 days. When we got back they had made the bed and took the trash took the dirty towels and gave us 3 clean towels back. 3 towels for 2 adults. They really only cleaned the room once. Never again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Came for Mardi-gras the room was not ready and we was told to come back in 30 min. The room was Ok nothing special. We stayed for 5 days after the 2nd day our room hadn't been cleaned. No clean sheets no clean towels trash still in room bed not made. On the way out I stopped and asked when our room was going to be cleaned the lady told me we clean the rooms every 3 days . So that means 1 time in 5 days. When we got back they had made the bed and took the trash took the dirty towels and gave us 3 clean towels back. 3 towels for 2 adults. They really only cleaned the room once. Never again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r162124897-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>162124897</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>cheap long term hotel</t>
+  </si>
+  <si>
+    <t>An ok hotel if you need a long term hotel and are on a tight budget.Rooms are clean, hallway carpet looks gross.Has a 2 burner cook top, adequate fridge, and a microwave.Front desk is only manned during daytime hours...it is a long term studio room.Definately not a luxury hotel.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r159490364-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159490364</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>I hate Nats!</t>
+  </si>
+  <si>
+    <t>So I understand this is a Studio 6.  I never expected luxury.  There always seemed to be a Nat problem in our room.  The trash had been taken out and no food left out.  We always seemed to have Nats.  The room was ok.  One of the box springs had a corner ripped and stuffing was coming out.  The curtains were a bit grimy.  I always check the beds for bedbugs before even sitting on it.  Both beds were clean of bedbugs.  That is my tip to all.  Even if you stay at a 5 star hotel always always check the corners of the bed.  Look on line it will show you what to look for.  I was eaten alive by bedbugs before.  It is no fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>So I understand this is a Studio 6.  I never expected luxury.  There always seemed to be a Nat problem in our room.  The trash had been taken out and no food left out.  We always seemed to have Nats.  The room was ok.  One of the box springs had a corner ripped and stuffing was coming out.  The curtains were a bit grimy.  I always check the beds for bedbugs before even sitting on it.  Both beds were clean of bedbugs.  That is my tip to all.  Even if you stay at a 5 star hotel always always check the corners of the bed.  Look on line it will show you what to look for.  I was eaten alive by bedbugs before.  It is no fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r150455215-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>150455215</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Hotel Smell</t>
+  </si>
+  <si>
+    <t>I didnt like this place. Ive seen worse, but this place smelled horrible- every where.The room smelled very bad and so did the hallways and there were trash cans by the elevator, so you see and smell trash while waiting for the elevator.That is gross and I really think management should find somewhere else for trash cans.I didnt feel safe here and the beds had very creeky wooden box springs with dirty old comforters.I was booked for 2 nights but canceled the second night. They better refund my card.This hotel is not really for nightly visitors but more for weekly stays. Work crews and druggies in my opinion. Oh- there IS a pet fee !  10.00 a night or 50 for a week or longer.I almost forgot , the first room they gave me was still dirty and some creep tried to pick me up in the parking lot while i was waiting for my fiance'.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I didnt like this place. Ive seen worse, but this place smelled horrible- every where.The room smelled very bad and so did the hallways and there were trash cans by the elevator, so you see and smell trash while waiting for the elevator.That is gross and I really think management should find somewhere else for trash cans.I didnt feel safe here and the beds had very creeky wooden box springs with dirty old comforters.I was booked for 2 nights but canceled the second night. They better refund my card.This hotel is not really for nightly visitors but more for weekly stays. Work crews and druggies in my opinion. Oh- there IS a pet fee !  10.00 a night or 50 for a week or longer.I almost forgot , the first room they gave me was still dirty and some creep tried to pick me up in the parking lot while i was waiting for my fiance'.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r142785737-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142785737</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>You should only stay here if you can afford more</t>
+  </si>
+  <si>
+    <t>When I booked the room for a week for business I expected an ok hotel, but what I got was a hotel with many cockroaches in it. I also never had house keeping enter my room with in the whole week. The bed is comfortable and it does have a nice fridge and stove. It is a dirty hotel, but if you need it for a short time it may be worth the price. Be aware of the area it is located in befoer you purchase this hotel. All and all I would say the front desk was nice, but dont expect anything else other than a smile while you are there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>When I booked the room for a week for business I expected an ok hotel, but what I got was a hotel with many cockroaches in it. I also never had house keeping enter my room with in the whole week. The bed is comfortable and it does have a nice fridge and stove. It is a dirty hotel, but if you need it for a short time it may be worth the price. Be aware of the area it is located in befoer you purchase this hotel. All and all I would say the front desk was nice, but dont expect anything else other than a smile while you are there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r140655428-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>140655428</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>It's has good associates.</t>
+  </si>
+  <si>
+    <t>The times I stay every week has been great.  I really enjoy myself.  The hotel is great.  The go above and beyond for my stay.  It is always quiet there.  They make sure that I have my reservation.  I would recommend this to anyone</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r132625760-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132625760</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The room was great for a motel 6, wifi worked the whole time.   There was no pet fee, which was great. It seemed really safe and quiet, would definitely recommend.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r130580427-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130580427</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>I traveled with my 3 kids while road tripping and we had an awesome time. The beds could have been more comfortable but all and all i was satisfied. The staff was great I loved that the young lady remembered our names and greeted us everytime. My youngest son was in love everytime she mentioned his name.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r130095196-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130095196</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Good hotel and service</t>
+  </si>
+  <si>
+    <t>Was very clean and the service was great.  Really enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r129694461-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129694461</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!!!</t>
+  </si>
+  <si>
+    <t>I must say the Studio 6 in New Orleans was probably to best hotel experience I have ever had!!  Dreaux the General Manager and his staff including Danna and Christina were the most accomodating and gracious--true examples of that good old Southern hospitality we here soo much about but sometimes don't experience---this hotel literally will bend over backwards to make your stay most comfortable;  I stayed during a transition time into a new home and needless to say that is stressful in itself but the staff  definitely minimized an otherwise trying time! If you ever visit New Orleans please do look Dreaux and staff up----I am sure you will have an equally pleasurable experience as I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>I must say the Studio 6 in New Orleans was probably to best hotel experience I have ever had!!  Dreaux the General Manager and his staff including Danna and Christina were the most accomodating and gracious--true examples of that good old Southern hospitality we here soo much about but sometimes don't experience---this hotel literally will bend over backwards to make your stay most comfortable;  I stayed during a transition time into a new home and needless to say that is stressful in itself but the staff  definitely minimized an otherwise trying time! If you ever visit New Orleans please do look Dreaux and staff up----I am sure you will have an equally pleasurable experience as I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r129672653-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129672653</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>Good service, great value, and the perfect location!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I absolutely love staying here! My stay has always been pleasurable. It's secluded and the staff is soooo helpful. If you want privacy at a great price, this is the place! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r129331460-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129331460</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>GREAT PLACE</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is great! The service and quality of the room was excellent. I would highly recommend to others. This hotel was wonderful and this was the perfect place to stay. The staff was great very helpful. The hotel was close to everything we had a wonderful time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r129212306-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129212306</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Friendly Staff-Clean Rooms</t>
+  </si>
+  <si>
+    <t>I was traveling with my wife and this was our first time in New Orleans. We found the staff enchanting and a fine example of true Southern Hospitality. We had no issues at all. I read some of the other reviews and I am not sure what kind of a smell they could be talking about. I have a very sensative nose and I did not smell anything except some kind of room deordorizer which my wife and I both liked. The price was great for what we paid! The only suggestion would be "free WiFi" and maybe FOX news on the TV cable choices. Other than that, our stay was wonderful and we will be back again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was traveling with my wife and this was our first time in New Orleans. We found the staff enchanting and a fine example of true Southern Hospitality. We had no issues at all. I read some of the other reviews and I am not sure what kind of a smell they could be talking about. I have a very sensative nose and I did not smell anything except some kind of room deordorizer which my wife and I both liked. The price was great for what we paid! The only suggestion would be "free WiFi" and maybe FOX news on the TV cable choices. Other than that, our stay was wonderful and we will be back again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r128535133-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128535133</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>depressing rooms</t>
+  </si>
+  <si>
+    <t>Myself and my 2 kids stayed here for a weekwhen we checked in there were only 2 towels for 3 people when I asked for more, I was told I had to use the towels and turn into reception like a criminal b4 I got more finally after speaking to the manager I got towelsroom was on ground floor 2 double beds in room one facing a wall with closet which meant I could not see tv when in bedroom was smelly, dirty dark and due to fact the view was brick wall very depressingInternet was down entire time I stayed here no explanationhad dog its indoor with corridor difficult to walk him a $50.00 non refundable pet fee was sprung on me at front desk though not explained when I booked reservationhotel is in dumpy area beside a home depot no decent resturantsMoreShow less</t>
+  </si>
+  <si>
+    <t>Myself and my 2 kids stayed here for a weekwhen we checked in there were only 2 towels for 3 people when I asked for more, I was told I had to use the towels and turn into reception like a criminal b4 I got more finally after speaking to the manager I got towelsroom was on ground floor 2 double beds in room one facing a wall with closet which meant I could not see tv when in bedroom was smelly, dirty dark and due to fact the view was brick wall very depressingInternet was down entire time I stayed here no explanationhad dog its indoor with corridor difficult to walk him a $50.00 non refundable pet fee was sprung on me at front desk though not explained when I booked reservationhotel is in dumpy area beside a home depot no decent resturantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r127548350-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127548350</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Good for what you pay for it.</t>
+  </si>
+  <si>
+    <t>When you drive up to this property, you might think: What have I gotten myself into? But once you walk through the front doors, all that changes. The staff is professional and knowledgeable. Check-in is swift and accurate. The rooms need some remodeling, but they have everything you need for a short or long stay: a kitchen, a bed, and a television. What more do you need? Everything is provided for you, and when you run out, whatever will be quickly replaced. The only downfall to this property is its location to the city.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r127499622-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127499622</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Funny Smell, Good Rate</t>
+  </si>
+  <si>
+    <t>I stayed for 6 nights during the final 4 in New Orleans(only because of the price). When first entering the room there is a strange smell in the room so I kept the window open to air out the room but it did not help. Also the maid did not service my room one night and I had to call the manager to make sure the room was serviced the next days. However the front desk staff was helpful and the room although small was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r127145413-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127145413</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Worst hotel I have ever been to.</t>
+  </si>
+  <si>
+    <t>I checked into the studio 6 extended stay for the NCAA championship game. The first problem with the hotel is they said we could check in at noon after standing in front of the counter while the employees talked to their friends on the desk phone for five minutes. When calling back at noon they said what they meant to say was one. We came back at one and waited another fifteen minutes for the same employees to stop conversating between each other, one being the operations manager. When finally getting into the room the smell was terrible and there were more problems. The shower curtain was missing, the screen to the window was broken so the window would not open, and the lamp above the table was broken and hanging upside down. Since we were in a hurry we called down to make sure we would not be charged for the damage. We showered then looked a little more into the room. Pulling back the blanket to the bed pubic hair was found covering the bed. That was enough so we called back down and asked for a refund. The lady said yes so we booked another room next door. When turning in the keys they then informed us the shower was used so there would be no refund. Nasty, disgusting, and unprofessional. I would suggust staying anywhere but the studio 6. MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked into the studio 6 extended stay for the NCAA championship game. The first problem with the hotel is they said we could check in at noon after standing in front of the counter while the employees talked to their friends on the desk phone for five minutes. When calling back at noon they said what they meant to say was one. We came back at one and waited another fifteen minutes for the same employees to stop conversating between each other, one being the operations manager. When finally getting into the room the smell was terrible and there were more problems. The shower curtain was missing, the screen to the window was broken so the window would not open, and the lamp above the table was broken and hanging upside down. Since we were in a hurry we called down to make sure we would not be charged for the damage. We showered then looked a little more into the room. Pulling back the blanket to the bed pubic hair was found covering the bed. That was enough so we called back down and asked for a refund. The lady said yes so we booked another room next door. When turning in the keys they then informed us the shower was used so there would be no refund. Nasty, disgusting, and unprofessional. I would suggust staying anywhere but the studio 6. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r122107739-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>122107739</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>Do not stay here.</t>
+  </si>
+  <si>
+    <t>Me and my work crew stayed here and in the first week our vehicles were broke into. If you want your vehicle broken into and every thing stolen then this is the place for you.   The office personnel are rude and disrespectful and inconsiderate,  my truck was stolen from there premises and all they can worry about is getting another day rental.  Also they have no security.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r118985024-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>118985024</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>A good budget choice for travelers with a car</t>
+  </si>
+  <si>
+    <t>We have stayed here before--this is our second visit.  The motel is quiet and about a 15 minute drive to the French Quarter.  Parking is free, unlike downtown hotels.  Our studio was fresh and clean---fully equipped kitchen, table and chairs, queen bed, etc.  This is a good budget alternative for travelers with a car who don't mind driving into town and are not looking for luxury.  We found parking in the Quarter for $6 a day---no problem. The motel has a coin laundry---wifi was $5 per week.  Fast food nearby.  They allow pets---occasionally we heard a dog barking.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r118018215-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>118018215</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>ok for the price</t>
+  </si>
+  <si>
+    <t>more room than motel comes with kitchen and utensils chair bed frig and range hard to beat at the price just remember this is not a hyatt or marriott also about 1/2 of this motel is rented to long term oil workers i did not have a problem but some people might all in all if you have pets and need a cheap sleep the weekly rates are unbeatable was with wife and we would stay here again</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r110949898-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>110949898</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>Won't go back!</t>
+  </si>
+  <si>
+    <t>The only good thing I can say about this hotel is that, it's convenietly located off I-10 E. The carpet, towels, bed linens, and mattress are worn, old and stained. I was there for Memorial Day weekend. I needed fresh towels for my Sunday Morning Shower but the office was closed until noon and they have an answering service answering the phones. The Hotel smelled like they soaked the building in Fabouloso Cleanser (yuk).</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r99288082-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>99288082</t>
+  </si>
+  <si>
+    <t>03/07/2011</t>
+  </si>
+  <si>
+    <t>If you're sensitive to smells, don't stay here</t>
+  </si>
+  <si>
+    <t>I originally booked this room for 4 days, and I was ready to leave....and did, in one.
+Problems:
+1) In other studio 6's, you can park your car next to door of room to unpack/repack your car. Here you must enter with all your stuff thru the lobby and down the hall to room. Lots of work when you have a cooler/dog etc.
+2) The rooms smell. Not their fault, mostly from Katrina flooding. Smells strongly of must/mildew, or cigarette smoke (even nonsmoking rooms)....and I tried a bunch of rooms. The smell was so bad I didn't want to touch anything, everything seems dirty although it looked OK. They even have nice new granite counter tops.
+3) Lots of large groups of construction crews stay here, not very conducive to a wholesome,homey feel.
+4) I have a dog, I sympathize with how difficult it must be to keep things smelling good, but I swore the hallways smelled like dog duty. 
+5) I was traveling with my dog and the areas to allow her to go to the bathroom in were awful, so full of dog poop you couldn't walk into them. And the smell, forget about it! I realize some people don't pick up after their pets but the staff should make an attempt to clean the grounds up every once in a while.
+The staff were all very friendly and helpful. I feel bad for their situation, with the...I originally booked this room for 4 days, and I was ready to leave....and did, in one.Problems:1) In other studio 6's, you can park your car next to door of room to unpack/repack your car. Here you must enter with all your stuff thru the lobby and down the hall to room. Lots of work when you have a cooler/dog etc.2) The rooms smell. Not their fault, mostly from Katrina flooding. Smells strongly of must/mildew, or cigarette smoke (even nonsmoking rooms)....and I tried a bunch of rooms. The smell was so bad I didn't want to touch anything, everything seems dirty although it looked OK. They even have nice new granite counter tops.3) Lots of large groups of construction crews stay here, not very conducive to a wholesome,homey feel.4) I have a dog, I sympathize with how difficult it must be to keep things smelling good, but I swore the hallways smelled like dog duty. 5) I was traveling with my dog and the areas to allow her to go to the bathroom in were awful, so full of dog poop you couldn't walk into them. And the smell, forget about it! I realize some people don't pick up after their pets but the staff should make an attempt to clean the grounds up every once in a while.The staff were all very friendly and helpful. I feel bad for their situation, with the flooding and all what can they do. I would recommend ripping out all the carpeting! I ended up leaving early and renting a condo in the city, immaculately clean and odor free. I absolutely loved the rest of my stay and look forward to going again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I originally booked this room for 4 days, and I was ready to leave....and did, in one.
+Problems:
+1) In other studio 6's, you can park your car next to door of room to unpack/repack your car. Here you must enter with all your stuff thru the lobby and down the hall to room. Lots of work when you have a cooler/dog etc.
+2) The rooms smell. Not their fault, mostly from Katrina flooding. Smells strongly of must/mildew, or cigarette smoke (even nonsmoking rooms)....and I tried a bunch of rooms. The smell was so bad I didn't want to touch anything, everything seems dirty although it looked OK. They even have nice new granite counter tops.
+3) Lots of large groups of construction crews stay here, not very conducive to a wholesome,homey feel.
+4) I have a dog, I sympathize with how difficult it must be to keep things smelling good, but I swore the hallways smelled like dog duty. 
+5) I was traveling with my dog and the areas to allow her to go to the bathroom in were awful, so full of dog poop you couldn't walk into them. And the smell, forget about it! I realize some people don't pick up after their pets but the staff should make an attempt to clean the grounds up every once in a while.
+The staff were all very friendly and helpful. I feel bad for their situation, with the...I originally booked this room for 4 days, and I was ready to leave....and did, in one.Problems:1) In other studio 6's, you can park your car next to door of room to unpack/repack your car. Here you must enter with all your stuff thru the lobby and down the hall to room. Lots of work when you have a cooler/dog etc.2) The rooms smell. Not their fault, mostly from Katrina flooding. Smells strongly of must/mildew, or cigarette smoke (even nonsmoking rooms)....and I tried a bunch of rooms. The smell was so bad I didn't want to touch anything, everything seems dirty although it looked OK. They even have nice new granite counter tops.3) Lots of large groups of construction crews stay here, not very conducive to a wholesome,homey feel.4) I have a dog, I sympathize with how difficult it must be to keep things smelling good, but I swore the hallways smelled like dog duty. 5) I was traveling with my dog and the areas to allow her to go to the bathroom in were awful, so full of dog poop you couldn't walk into them. And the smell, forget about it! I realize some people don't pick up after their pets but the staff should make an attempt to clean the grounds up every once in a while.The staff were all very friendly and helpful. I feel bad for their situation, with the flooding and all what can they do. I would recommend ripping out all the carpeting! I ended up leaving early and renting a condo in the city, immaculately clean and odor free. I absolutely loved the rest of my stay and look forward to going again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r52319320-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>52319320</t>
+  </si>
+  <si>
+    <t>01/01/2010</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>If you guys have kids its a great place to stay.The only creepy thing was the elevator. But everything else was great. We did not a single complain.Ihop was close. Its a great value because it has a kitchen.But the only bad thing was they say that they hve free wifi but they dont we have to pay atound 5 dollars for the Internet.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r21072544-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>21072544</t>
+  </si>
+  <si>
+    <t>10/21/2008</t>
+  </si>
+  <si>
+    <t>Great for a small budget</t>
+  </si>
+  <si>
+    <t>We didn't know what to expect with this one. We were in town for one night for a concert and had a small budget for our hotel room.  I find a great deal on their website the night before and booked it.  When we arrived, the front desk attendant was very friendly. The room was very basic  but perfect for what we needed.  The door to the room required some extra work to get it to lock, which was a little scary, but it worked.  Also, we had noisy neighbors and other guests on our hall, so we could hear them yelling early in the morning.  Other than that, we were very pleased with this hotel and would recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>We didn't know what to expect with this one. We were in town for one night for a concert and had a small budget for our hotel room.  I find a great deal on their website the night before and booked it.  When we arrived, the front desk attendant was very friendly. The room was very basic  but perfect for what we needed.  The door to the room required some extra work to get it to lock, which was a little scary, but it worked.  Also, we had noisy neighbors and other guests on our hall, so we could hear them yelling early in the morning.  Other than that, we were very pleased with this hotel and would recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223131-r3658198-Studio_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3658198</t>
+  </si>
+  <si>
+    <t>07/10/2005</t>
+  </si>
+  <si>
+    <t>Good Budget Alternative</t>
+  </si>
+  <si>
+    <t>We were in New Orleans for a week and tried this extended stay hotel.Our room resembled a dormitory - simple, a bit small and rather plain.  However, it was immaculately clean and the extended stay amenities (stove, microwave, coffee-maker, etc.) were all relatively new and very convenient.  We also enjoyed the pool, shared with the adjacent Motel 6.  The common areas were well kept and the staff were helpful when needed.The only complaint is that towel and housekeeping service could havebeen a little more frequent (it is not done daily).All in all, we were satisfied.  This is a clean, no-frills accomodation that is a steal of a deal considering it is in New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in New Orleans for a week and tried this extended stay hotel.Our room resembled a dormitory - simple, a bit small and rather plain.  However, it was immaculately clean and the extended stay amenities (stove, microwave, coffee-maker, etc.) were all relatively new and very convenient.  We also enjoyed the pool, shared with the adjacent Motel 6.  The common areas were well kept and the staff were helpful when needed.The only complaint is that towel and housekeeping service could havebeen a little more frequent (it is not done daily).All in all, we were satisfied.  This is a clean, no-frills accomodation that is a steal of a deal considering it is in New Orleans.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -555,6 +1542,3239 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
+        <v>209</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" t="s">
+        <v>235</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" t="s">
+        <v>251</v>
+      </c>
+      <c r="L37" t="s">
+        <v>252</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>242</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>260</v>
+      </c>
+      <c r="J39" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>242</v>
+      </c>
+      <c r="O39" t="s">
+        <v>144</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s">
+        <v>268</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" t="s">
+        <v>274</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>242</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s">
+        <v>285</v>
+      </c>
+      <c r="L43" t="s">
+        <v>286</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>242</v>
+      </c>
+      <c r="O43" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s">
+        <v>296</v>
+      </c>
+      <c r="L45" t="s">
+        <v>297</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" t="s">
+        <v>300</v>
+      </c>
+      <c r="K46" t="s">
+        <v>301</v>
+      </c>
+      <c r="L46" t="s">
+        <v>302</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>312</v>
+      </c>
+      <c r="K48" t="s">
+        <v>313</v>
+      </c>
+      <c r="L48" t="s">
+        <v>314</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s">
+        <v>320</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>321</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s">
+        <v>326</v>
+      </c>
+      <c r="L50" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>330</v>
+      </c>
+      <c r="J51" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L51" t="s">
+        <v>333</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>334</v>
+      </c>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40003</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -577,31 +4797,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>346</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>348</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
@@ -609,31 +4829,31 @@
         <v>40003</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="E2" t="n">
         <v>70128</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
